--- a/public/downloads/results/2024/british/TESTED-FP-RAW.xlsx
+++ b/public/downloads/results/2024/british/TESTED-FP-RAW.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW RECORDS TEMPLATE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/COMONWELTH ^0 EUROPEN RECORDES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1221" documentId="8_{406763AE-22C8-4994-A1E8-52D3B1C82B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3739C74B-B3D5-41C5-88F1-07F717B4FE4D}"/>
+  <xr:revisionPtr revIDLastSave="1649" documentId="8_{406763AE-22C8-4994-A1E8-52D3B1C82B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9E14BC6-AF41-4FF2-8ACA-009762CD317D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
     <sheet name="WOMEN OPEN" sheetId="6" r:id="rId2"/>
     <sheet name="MEN MARSTERS" sheetId="1" r:id="rId3"/>
     <sheet name="WOMEN MASTERS" sheetId="2" r:id="rId4"/>
-    <sheet name="MEN JUNIOR 15 - 19" sheetId="3" r:id="rId5"/>
+    <sheet name="MEN JUNIOR 13 - 19" sheetId="3" r:id="rId5"/>
     <sheet name="WOMEN JUNIOR 15 -19" sheetId="4" r:id="rId6"/>
     <sheet name="JUNIOR 20-23 MEN" sheetId="12" r:id="rId7"/>
     <sheet name="JUNIOR 20-23 WOMEN " sheetId="13" r:id="rId8"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="155">
   <si>
     <t>Weight</t>
   </si>
@@ -157,121 +157,13 @@
     <t>MEN OPEN</t>
   </si>
   <si>
-    <t>BRITISH CHAMPIONSHIPS</t>
-  </si>
-  <si>
-    <t>200.0KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRITISH CHAMPIONSHIPS </t>
-  </si>
-  <si>
-    <t>235.0KG</t>
-  </si>
-  <si>
-    <t>140.0KG</t>
-  </si>
-  <si>
-    <t>55.0KG</t>
-  </si>
-  <si>
-    <t>145.0KG</t>
-  </si>
-  <si>
-    <t>100.0KG</t>
-  </si>
-  <si>
-    <t>190.0KG</t>
-  </si>
-  <si>
-    <t>150.0KG</t>
-  </si>
-  <si>
-    <t>122.5KG</t>
-  </si>
-  <si>
-    <t>555.0KG</t>
-  </si>
-  <si>
-    <t>215.0KG</t>
-  </si>
-  <si>
-    <t>130.0KG</t>
-  </si>
-  <si>
-    <t>275.0KG</t>
-  </si>
-  <si>
-    <t>MONTY CROWN</t>
-  </si>
-  <si>
-    <t>132.5KG</t>
-  </si>
-  <si>
-    <t>BRITISH CHAMPIONSHIP</t>
-  </si>
-  <si>
-    <t>210.0KG</t>
-  </si>
-  <si>
-    <t>115.0KG</t>
-  </si>
-  <si>
-    <t>105.0KG</t>
-  </si>
-  <si>
-    <t>125.0KG</t>
-  </si>
-  <si>
-    <t>120.0KG</t>
-  </si>
-  <si>
-    <t>52.5KG</t>
-  </si>
-  <si>
     <t>110+ KG</t>
-  </si>
-  <si>
-    <t>180.0KG</t>
-  </si>
-  <si>
-    <t>LEON LANGRISH</t>
-  </si>
-  <si>
-    <t>227.5KG</t>
-  </si>
-  <si>
-    <t>550.0KG</t>
   </si>
   <si>
     <t>COMP</t>
   </si>
   <si>
     <t>LIFTEDIN KG</t>
-  </si>
-  <si>
-    <t>DANIEL MORRIS</t>
-  </si>
-  <si>
-    <t>MAYHEM IN BOSTON</t>
-  </si>
-  <si>
-    <t>160.0KG</t>
-  </si>
-  <si>
-    <t>90.0KG</t>
-  </si>
-  <si>
-    <t>409.0KG</t>
-  </si>
-  <si>
-    <t>TOM MORRIS</t>
-  </si>
-  <si>
-    <t>162.5KG</t>
-  </si>
-  <si>
-    <t>86.5KG</t>
   </si>
   <si>
     <t>MENS MARSTERS 1</t>
@@ -299,84 +191,6 @@
   </si>
   <si>
     <t>MASTER 8 + - MEN 80+</t>
-  </si>
-  <si>
-    <t>JON SWAFFIELD</t>
-  </si>
-  <si>
-    <t>220.0KG</t>
-  </si>
-  <si>
-    <t>455.0KG</t>
-  </si>
-  <si>
-    <t>PRESTON CROFT</t>
-  </si>
-  <si>
-    <t>60.0KG</t>
-  </si>
-  <si>
-    <t>290.0KG</t>
-  </si>
-  <si>
-    <t>320.0KG</t>
-  </si>
-  <si>
-    <t>KAMRAN DAVIES</t>
-  </si>
-  <si>
-    <t>185.0KG</t>
-  </si>
-  <si>
-    <t>250.0KG</t>
-  </si>
-  <si>
-    <t>580.0KG</t>
-  </si>
-  <si>
-    <t>MATTHEW MERRICK</t>
-  </si>
-  <si>
-    <t>155.0KG</t>
-  </si>
-  <si>
-    <t>NICKOLAY NIKOLAUEK</t>
-  </si>
-  <si>
-    <t>245.0KG</t>
-  </si>
-  <si>
-    <t>165.0KG</t>
-  </si>
-  <si>
-    <t>675.0KG</t>
-  </si>
-  <si>
-    <t>195.0KG</t>
-  </si>
-  <si>
-    <t>560.0KG</t>
-  </si>
-  <si>
-    <t>IMRAN KHAN</t>
-  </si>
-  <si>
-    <t>RECORD BREAKERS</t>
-  </si>
-  <si>
-    <t>205.0KG</t>
-  </si>
-  <si>
-    <t>497.5KG</t>
-  </si>
-  <si>
-    <t>PAUL BAINES</t>
-  </si>
-  <si>
-    <t>176.0KG</t>
-  </si>
-  <si>
-    <t>396.0KG</t>
   </si>
   <si>
     <t>WOMEN JUNIORS 13-15</t>
@@ -412,229 +226,286 @@
     <t xml:space="preserve">MASTER 8+- WOMEN 80+ </t>
   </si>
   <si>
-    <t>IZZY COTTON</t>
-  </si>
-  <si>
-    <t>92.5KG</t>
-  </si>
-  <si>
-    <t>192.0KG</t>
-  </si>
-  <si>
     <t>JUNIOR - MEN AGE 13-15</t>
   </si>
   <si>
     <t>JUNIOR - MEN AGE 15-19</t>
   </si>
   <si>
-    <t xml:space="preserve">BPF NORTHEN </t>
+    <t>HARRY McKEANEY</t>
   </si>
   <si>
-    <t>MONTCROWN</t>
+    <t>DT WORLD CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>155.0KG</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>120.0G</t>
+  </si>
+  <si>
+    <t>170.0KG</t>
+  </si>
+  <si>
+    <t>445.0KG</t>
+  </si>
+  <si>
+    <t>SOPHIE SAMUELS</t>
+  </si>
+  <si>
+    <t>45.0KG</t>
+  </si>
+  <si>
+    <t>112.5KG</t>
+  </si>
+  <si>
+    <t>237.5KG</t>
+  </si>
+  <si>
+    <t>JENSON COREY</t>
+  </si>
+  <si>
+    <t>DT WORD CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>175.0KG</t>
+  </si>
+  <si>
+    <t>135.0KG</t>
+  </si>
+  <si>
+    <t>245.0KG</t>
+  </si>
+  <si>
+    <t>555.0KG</t>
+  </si>
+  <si>
+    <t>PAUL BAINES</t>
+  </si>
+  <si>
+    <t>IMRAN KHAN</t>
+  </si>
+  <si>
+    <t>190.0KG</t>
+  </si>
+  <si>
+    <t>205.0KG</t>
+  </si>
+  <si>
+    <t>522.5KG</t>
+  </si>
+  <si>
+    <t>MICHAEL (BUSTER) KEEFE</t>
+  </si>
+  <si>
+    <t>235.0KG</t>
+  </si>
+  <si>
+    <t>260.0KG</t>
+  </si>
+  <si>
+    <t>650.0KG</t>
+  </si>
+  <si>
+    <t>PHILIP NEWTON</t>
+  </si>
+  <si>
+    <t>200.0KG</t>
   </si>
   <si>
     <t>230.0KG</t>
   </si>
   <si>
-    <t>AUDERY DENNISON</t>
+    <t>EUR &amp; COMMONWELTH</t>
   </si>
   <si>
-    <t>BRITISH CHAYIONSHIPS</t>
+    <t>105.0KG</t>
   </si>
   <si>
-    <t>405G</t>
+    <t>HARRY BARKER</t>
   </si>
   <si>
-    <t>CORY JENSON</t>
+    <t>EUR &amp; COMMONWELH</t>
   </si>
   <si>
-    <t>BRITISH CHAMPION</t>
+    <t>140.0KG</t>
   </si>
   <si>
-    <t xml:space="preserve"> BRITISH CHAMPIONSHIL</t>
+    <t>95.0KG</t>
   </si>
   <si>
-    <t>MICHAEL (BUSTER) KEFE</t>
+    <t>425.0KG</t>
   </si>
   <si>
-    <t>BRITISH CHAMPIONSHI8</t>
+    <t>85.0KG</t>
   </si>
   <si>
-    <t>254.0KG</t>
+    <t>ROZ GRIFFITHS</t>
   </si>
   <si>
-    <t>LEON-TYIER BROCKETT</t>
+    <t>90.0KG</t>
   </si>
   <si>
-    <t>FINLEY ROBERTS</t>
+    <t>52.5KG</t>
   </si>
   <si>
-    <t>225.0KG</t>
+    <t>282.5KG</t>
   </si>
   <si>
-    <t>600.0KG</t>
+    <t>ELIZABETH COTTON</t>
   </si>
   <si>
-    <t>PHIL HADLEY</t>
+    <t>102.5KG</t>
+  </si>
+  <si>
+    <t>132.5KG</t>
+  </si>
+  <si>
+    <t>287.5KG</t>
+  </si>
+  <si>
+    <t>180.0KG</t>
+  </si>
+  <si>
+    <t>BURT SAMSON</t>
+  </si>
+  <si>
+    <t>eur &amp; commonwelth</t>
+  </si>
+  <si>
+    <t>173.0kg</t>
+  </si>
+  <si>
+    <t>nauru</t>
+  </si>
+  <si>
+    <t>90.0kg</t>
+  </si>
+  <si>
+    <t>160.0kg</t>
+  </si>
+  <si>
+    <t>423.0kg</t>
+  </si>
+  <si>
+    <t>YAMEOW KEPAE</t>
+  </si>
+  <si>
+    <t>207.0KG</t>
+  </si>
+  <si>
+    <t>182.5KG</t>
+  </si>
+  <si>
+    <t>NAURU</t>
+  </si>
+  <si>
+    <t>495.0KG</t>
+  </si>
+  <si>
+    <t>BRONCO DEIRANAUW</t>
+  </si>
+  <si>
+    <t>350.0KG</t>
+  </si>
+  <si>
+    <t>255.0KG</t>
+  </si>
+  <si>
+    <t>805.0KG</t>
+  </si>
+  <si>
+    <t>ARMILLIUS TEIMITSI</t>
+  </si>
+  <si>
+    <t>160.0KG</t>
+  </si>
+  <si>
+    <t>195.0KG</t>
+  </si>
+  <si>
+    <t>460.0KG</t>
+  </si>
+  <si>
+    <t>ELIAS BALIUKEVICIUS</t>
+  </si>
+  <si>
+    <t>165.0KG</t>
+  </si>
+  <si>
+    <t>455.0KG</t>
+  </si>
+  <si>
+    <t>LUCY MOORE</t>
+  </si>
+  <si>
+    <t>47.5KG</t>
+  </si>
+  <si>
+    <t>305.0KG</t>
+  </si>
+  <si>
+    <t>575.0KG</t>
+  </si>
+  <si>
+    <t>KAMRAN DAVIES</t>
+  </si>
+  <si>
+    <t>150.0KG</t>
+  </si>
+  <si>
+    <t>275.0KG</t>
+  </si>
+  <si>
+    <t>625.0KG</t>
+  </si>
+  <si>
+    <t>JESSICA BOWLER</t>
+  </si>
+  <si>
+    <t>120.0KG</t>
+  </si>
+  <si>
+    <t>220.0KG</t>
+  </si>
+  <si>
+    <t>240.0KG</t>
+  </si>
+  <si>
+    <t>640.0KG</t>
+  </si>
+  <si>
+    <t>VASILE BUCEAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECORD BRAKERS </t>
   </si>
   <si>
     <t>510.0KG</t>
   </si>
   <si>
-    <t>PAUL BAINS</t>
+    <t>ROUMANIA</t>
   </si>
   <si>
-    <t>ZOE SMITH</t>
+    <t>GHEORGHE BUCEAC</t>
   </si>
   <si>
-    <t>KAMILE CAPULYTE</t>
+    <t>RECORD BRAKERS</t>
   </si>
   <si>
-    <t xml:space="preserve">MONTY CROWN </t>
+    <t>310.0KG</t>
   </si>
   <si>
-    <t>80.0KG</t>
-  </si>
-  <si>
-    <t>110.0KG</t>
-  </si>
-  <si>
-    <t>MELISSA TAPLIN</t>
-  </si>
-  <si>
-    <t>102.5KG</t>
-  </si>
-  <si>
-    <t>50.0KG</t>
-  </si>
-  <si>
-    <t>CATHERINE DE MARTION-COOKE</t>
-  </si>
-  <si>
-    <t>MANSFEILD MANIA</t>
-  </si>
-  <si>
-    <t>52.0KG</t>
-  </si>
-  <si>
-    <t>322.0KG</t>
-  </si>
-  <si>
-    <t>ANNA COX</t>
-  </si>
-  <si>
-    <t>147.5KG</t>
-  </si>
-  <si>
-    <t>ROZ GRIFFITHS</t>
-  </si>
-  <si>
-    <t>136.0KG</t>
-  </si>
-  <si>
-    <t>HEATHER SWAIN</t>
-  </si>
-  <si>
-    <t>RECORD BEAKERS</t>
-  </si>
-  <si>
-    <t>70.0KG</t>
+    <t>185.0KG</t>
   </si>
   <si>
     <t>300.0KG</t>
   </si>
   <si>
-    <t>265.0KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCY MOORE </t>
-  </si>
-  <si>
-    <t>MATHEM IN BOSTON</t>
-  </si>
-  <si>
-    <t>127.5KG</t>
-  </si>
-  <si>
-    <t>270.0KG</t>
-  </si>
-  <si>
-    <t>JESICA BOWLER</t>
-  </si>
-  <si>
-    <t>KELLY BROWN</t>
-  </si>
-  <si>
-    <t>66.0KG</t>
-  </si>
-  <si>
-    <t>326.0KG</t>
-  </si>
-  <si>
-    <t>JULIE YVONNE CHURM</t>
-  </si>
-  <si>
-    <t>65.0KG</t>
-  </si>
-  <si>
-    <t>335.0KG</t>
-  </si>
-  <si>
-    <t>JAMES LKAY</t>
-  </si>
-  <si>
-    <t>BRITISH CHAMPINSHIPS</t>
-  </si>
-  <si>
-    <t>276.0KG</t>
-  </si>
-  <si>
-    <t>PHILIP NEWTONP</t>
-  </si>
-  <si>
-    <t>BRITISH CHAAMPIONSHIPS</t>
-  </si>
-  <si>
-    <t>630.0KG</t>
-  </si>
-  <si>
-    <t>SOPHIE SAMUELS</t>
-  </si>
-  <si>
-    <t>95.0KG</t>
-  </si>
-  <si>
-    <t>4200KG</t>
-  </si>
-  <si>
-    <t>465.0KG</t>
-  </si>
-  <si>
-    <t>42.5KG</t>
-  </si>
-  <si>
-    <t>HARRY BARKER</t>
-  </si>
-  <si>
-    <t>87.5KG</t>
-  </si>
-  <si>
-    <t>WOMEN OF IRON</t>
-  </si>
-  <si>
-    <t>141.0KG</t>
-  </si>
-  <si>
-    <t>286.0KG</t>
-  </si>
-  <si>
-    <t>VIOLET THRALL</t>
-  </si>
-  <si>
-    <t>27/08/2W023</t>
-  </si>
-  <si>
-    <t>135.5KG</t>
+    <t>795.0KG</t>
   </si>
 </sst>
 </file>
@@ -1058,16 +929,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306999F4-8918-254E-B53D-F64ABC5BF343}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="20.4140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="9" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1249,7 +1120,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1258,7 +1129,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1271,7 +1142,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -1282,7 +1153,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1293,7 +1164,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -1304,7 +1175,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1313,7 +1184,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -1321,77 +1192,45 @@
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="13">
-        <v>44962</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="1"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="13">
-        <v>44962</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D24" s="1"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="13">
-        <v>44962</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D25" s="1"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="13">
-        <v>44962</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D26" s="1"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1400,7 +1239,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
@@ -1409,76 +1248,88 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E28" s="13">
-        <v>45010</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>45108</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E29" s="13">
-        <v>45010</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>45108</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="E30" s="13">
-        <v>45024</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>38</v>
+        <v>45108</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="E31" s="13">
-        <v>45010</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>45108</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1487,7 +1338,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
@@ -1496,60 +1347,88 @@
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E33" s="13">
-        <v>44962</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>129</v>
+        <v>45256</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="13">
+        <v>45256</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E35" s="13">
-        <v>45024</v>
+        <v>45256</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="13">
+        <v>45256</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1558,7 +1437,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>14</v>
@@ -1571,7 +1450,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -1582,7 +1461,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -1593,7 +1472,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -1604,7 +1483,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1613,7 +1492,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>15</v>
@@ -1626,7 +1505,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -1637,7 +1516,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -1648,7 +1527,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -1659,7 +1538,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1668,7 +1547,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
@@ -1676,45 +1555,89 @@
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="13">
+        <v>45256</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="13">
+        <v>45256</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="13">
+        <v>45256</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="13">
+        <v>45256</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1723,7 +1646,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>17</v>
@@ -1732,76 +1655,88 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E53" s="13">
-        <v>44877</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>106</v>
+        <v>45108</v>
+      </c>
+      <c r="F53" t="s">
+        <v>92</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E54" s="13">
-        <v>44877</v>
-      </c>
-      <c r="F54" s="1" t="s">
+        <v>45108</v>
+      </c>
+      <c r="F54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E55" s="13">
-        <v>44877</v>
+        <v>45221</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E56" s="13">
-        <v>44877</v>
+        <v>45221</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1810,7 +1745,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>18</v>
@@ -1819,62 +1754,88 @@
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="1" t="s">
-        <v>183</v>
+        <v>89</v>
+      </c>
+      <c r="E58" s="13">
+        <v>45108</v>
+      </c>
+      <c r="F58" t="s">
+        <v>92</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E59" s="13">
+        <v>45108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>92</v>
+      </c>
       <c r="G59" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="H59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="13">
+        <v>45221</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G60" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E61" s="13">
+        <v>45108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>92</v>
+      </c>
       <c r="G61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1883,7 +1844,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
@@ -1891,7 +1852,7 @@
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2442,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2616,7 +2577,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -2626,7 +2587,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2634,7 +2595,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -2646,7 +2607,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -2656,7 +2617,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -2666,7 +2627,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -2676,7 +2637,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2684,7 +2645,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>9</v>
@@ -2696,7 +2657,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -2706,7 +2667,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -2716,7 +2677,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -2726,7 +2687,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2734,7 +2695,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>10</v>
@@ -2742,77 +2703,41 @@
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="12">
-        <v>44962</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="12">
-        <v>44962</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="12">
-        <v>44962</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D31" s="10"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="12">
-        <v>44962</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2820,7 +2745,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>11</v>
@@ -2828,77 +2753,41 @@
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="12">
-        <v>44808</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D34" s="10"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="12">
-        <v>44808</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D35" s="10"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="12">
-        <v>44808</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D36" s="10"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="12">
-        <v>44808</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2906,7 +2795,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>12</v>
@@ -2914,74 +2803,41 @@
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" s="12">
-        <v>44695</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D39" s="10"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="12">
-        <v>44695</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D40" s="10"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="12">
-        <v>44695</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D41" s="10"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="12">
-        <v>44695</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D42" s="10"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2989,7 +2845,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>13</v>
@@ -3001,7 +2857,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -3011,7 +2867,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -3021,7 +2877,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
@@ -3031,7 +2887,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3039,7 +2895,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>32</v>
@@ -3048,76 +2904,88 @@
         <v>4</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E49" s="11">
-        <v>45010</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>169</v>
+        <v>45108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>92</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E50" s="11">
-        <v>45010</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>169</v>
+        <v>45108</v>
+      </c>
+      <c r="F50" t="s">
+        <v>92</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E51" s="11">
-        <v>45010</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>169</v>
+        <v>45108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="H51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E52" s="11">
-        <v>45010</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>169</v>
+        <v>45108</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="H52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3125,7 +2993,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" t="s">
         <v>33</v>
@@ -3134,67 +3002,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>34</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="11">
-        <v>44877</v>
-      </c>
-      <c r="F59" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="11"/>
-      <c r="G60" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="11"/>
-      <c r="G61" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="G62" s="9" t="s">
-        <v>175</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3203,15 +3051,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:I556"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G241" sqref="G241"/>
+    <sheetView topLeftCell="B236" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="20.08203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.58203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="9"/>
@@ -3219,7 +3067,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3337,12 +3185,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -3351,33 +3199,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -3386,33 +3234,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
@@ -3420,29 +3268,90 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="11">
+        <v>45108</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="11">
+        <v>45108</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="11">
+        <v>45108</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="11">
+        <v>45108</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3566,7 +3475,7 @@
       </c>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -3574,7 +3483,7 @@
       </c>
       <c r="E49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
@@ -3582,7 +3491,7 @@
       </c>
       <c r="E50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
@@ -3590,12 +3499,12 @@
       </c>
       <c r="E51" s="11"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>17</v>
@@ -3603,82 +3512,38 @@
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>18</v>
@@ -3687,40 +3552,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>0</v>
@@ -3729,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>3</v>
@@ -3738,33 +3603,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>8</v>
@@ -3772,34 +3637,42 @@
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F70" s="11"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F71" s="11"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F73" s="11"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>9</v>
@@ -3808,33 +3681,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>10</v>
@@ -4159,7 +4032,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C124" s="1"/>
     </row>
@@ -4307,12 +4180,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
         <v>11</v>
@@ -4321,33 +4194,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>12</v>
@@ -4355,82 +4228,38 @@
       <c r="C151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E151" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E151" s="11"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D152" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E152" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E152" s="11"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D153" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E153" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E153" s="11"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E154" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E154" s="11"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
         <v>13</v>
@@ -4438,82 +4267,38 @@
       <c r="C156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E156" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E156" s="11"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E157" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E157" s="11"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E158" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E158" s="11"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D159" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E159" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E159" s="11"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
         <v>14</v>
@@ -4522,33 +4307,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
         <v>15</v>
@@ -4557,81 +4342,93 @@
         <v>4</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E166" s="11">
-        <v>44695</v>
+        <v>45220</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="H166" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E167" s="11">
-        <v>44695</v>
+        <v>45220</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="H167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E168" s="11">
-        <v>44695</v>
+        <v>45220</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="H168" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E169" s="11">
-        <v>44695</v>
+        <v>45220</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="H169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
         <v>16</v>
@@ -4640,33 +4437,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
         <v>17</v>
@@ -4674,82 +4471,38 @@
       <c r="C176" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E176" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F176" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G176" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E176" s="11"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E177" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F177" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G177" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E177" s="11"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D178" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E178" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F178" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G178" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E178" s="11"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E179" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F179" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G179" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E179" s="11"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
         <v>18</v>
@@ -4758,40 +4511,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
         <v>0</v>
@@ -4800,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="1" t="s">
         <v>3</v>
@@ -4809,28 +4562,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5061,26 +4814,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="1" t="s">
         <v>15</v>
@@ -5089,33 +4842,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
         <v>16</v>
@@ -5124,33 +4877,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="2"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="2"/>
       <c r="B238" s="1" t="s">
         <v>17</v>
@@ -5158,82 +4911,38 @@
       <c r="C238" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D238" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E238" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F238" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G238" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E238" s="11"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="2"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D239" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E239" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F239" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G239" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E239" s="11"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="2"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D240" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E240" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G240" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E240" s="11"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E241" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F241" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G241" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E241" s="11"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="2"/>
       <c r="B243" s="1" t="s">
         <v>18</v>
@@ -5241,41 +4950,101 @@
       <c r="C243" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D243" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E243" s="11">
+        <v>45108</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H243" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="2"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D244" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E244" s="11">
+        <v>45108</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H244" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="2"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D245" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E245" s="11">
+        <v>45108</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H245" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="2"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D246" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E246" s="11">
+        <v>45108</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G246" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H246" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="2"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="2"/>
       <c r="B248" s="3" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="2"/>
       <c r="B249" s="1" t="s">
         <v>0</v>
@@ -5284,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="2"/>
       <c r="B250" s="1" t="s">
         <v>3</v>
@@ -5293,33 +5062,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="2"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="2"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="2"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="2"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="2"/>
       <c r="B255" s="1" t="s">
         <v>8</v>
@@ -5328,7 +5097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="2"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
@@ -5707,7 +5476,7 @@
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="2"/>
       <c r="B310" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C310" s="1"/>
     </row>
@@ -6143,7 +5912,7 @@
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
       <c r="B372" s="1" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C372" s="1"/>
     </row>
@@ -6579,7 +6348,7 @@
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="2"/>
       <c r="B434" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C434" s="1"/>
     </row>
@@ -7010,7 +6779,7 @@
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495" s="2"/>
       <c r="B495" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C495" s="1"/>
     </row>
@@ -7448,23 +7217,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
-  <dimension ref="A1:G477"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A87" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="14.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="9"/>
-    <col min="6" max="6" width="22.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -7591,13 +7360,13 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -7607,7 +7376,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -7615,26 +7384,16 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="11">
-        <v>45024</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -7642,13 +7401,13 @@
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>9</v>
@@ -7658,7 +7417,7 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -7666,7 +7425,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -7674,7 +7433,7 @@
       </c>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -7682,13 +7441,13 @@
       </c>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>10</v>
@@ -7698,7 +7457,7 @@
       </c>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -7706,7 +7465,7 @@
       </c>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -7714,7 +7473,7 @@
       </c>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -7722,7 +7481,7 @@
       </c>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7891,7 +7650,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1"/>
     </row>
@@ -7985,7 +7744,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>3</v>
@@ -7993,20 +7752,10 @@
       <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E65" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
@@ -8014,26 +7763,16 @@
       </c>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="11">
-        <v>44836</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
@@ -8041,13 +7780,13 @@
       </c>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>8</v>
@@ -8055,41 +7794,95 @@
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D70" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="11">
+        <v>45107</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D71" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="11">
+        <v>45217</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="11">
+        <v>45217</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D73" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="11">
+        <v>45217</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>9</v>
@@ -8099,7 +7892,7 @@
       </c>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
@@ -8107,7 +7900,7 @@
       </c>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
@@ -8115,7 +7908,7 @@
       </c>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
@@ -8123,13 +7916,13 @@
       </c>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>10</v>
@@ -8139,7 +7932,7 @@
       </c>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
@@ -8147,7 +7940,7 @@
       </c>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
@@ -8155,7 +7948,7 @@
       </c>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
@@ -8163,13 +7956,13 @@
       </c>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>11</v>
@@ -8179,7 +7972,7 @@
       </c>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
@@ -8187,7 +7980,7 @@
       </c>
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
@@ -8195,7 +7988,7 @@
       </c>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
@@ -8203,13 +7996,13 @@
       </c>
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="10"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>12</v>
@@ -8219,7 +8012,7 @@
       </c>
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
@@ -8227,26 +8020,16 @@
       </c>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E92" s="11">
-        <v>44962</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
@@ -8254,13 +8037,13 @@
       </c>
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>13</v>
@@ -8268,83 +8051,43 @@
       <c r="C95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E95" s="11">
-        <v>44660</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E96" s="11">
-        <v>44660</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E97" s="11">
-        <v>44660</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E98" s="11">
-        <v>44660</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="10"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>32</v>
@@ -8352,43 +8095,96 @@
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D100" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" s="11">
+        <v>45107</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D101" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="11">
+        <v>45107</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D102" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" s="11">
+        <v>45107</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D103" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="11">
+        <v>45107</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="10"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
         <v>33</v>
@@ -8398,7 +8194,7 @@
       </c>
       <c r="D105" s="10"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
@@ -8406,7 +8202,7 @@
       </c>
       <c r="D106" s="10"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
@@ -8414,7 +8210,7 @@
       </c>
       <c r="D107" s="10"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
@@ -8422,16 +8218,16 @@
       </c>
       <c r="D108" s="10"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
@@ -8439,7 +8235,7 @@
       <c r="D110" s="10"/>
       <c r="E110" s="11"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
@@ -8447,7 +8243,7 @@
       </c>
       <c r="D111" s="10"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
@@ -8472,7 +8268,7 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="3" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C115" s="1"/>
     </row>
@@ -8883,7 +8679,7 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C166" s="1"/>
     </row>
@@ -9227,7 +9023,7 @@
       </c>
       <c r="D208" s="10"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1" t="s">
@@ -9235,7 +9031,7 @@
       </c>
       <c r="D209" s="10"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
@@ -9243,7 +9039,7 @@
       </c>
       <c r="D210" s="10"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
@@ -9251,13 +9047,13 @@
       </c>
       <c r="D211" s="10"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="10"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="1" t="s">
         <v>23</v>
@@ -9267,7 +9063,7 @@
       </c>
       <c r="D213" s="10"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1" t="s">
@@ -9275,7 +9071,7 @@
       </c>
       <c r="D214" s="10"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1" t="s">
@@ -9283,7 +9079,7 @@
       </c>
       <c r="D215" s="10"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
@@ -9291,13 +9087,13 @@
       </c>
       <c r="D216" s="10"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="10"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
         <v>24</v>
@@ -9305,90 +9101,50 @@
       <c r="C218" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D218" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E218" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F218" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G218" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D218" s="10"/>
+      <c r="E218" s="11"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D219" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E219" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F219" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G219" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D219" s="10"/>
+      <c r="E219" s="11"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D220" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E220" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F220" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G220" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D220" s="10"/>
+      <c r="E220" s="11"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E221" s="11">
-        <v>44695</v>
-      </c>
-      <c r="F221" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G221" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D221" s="10"/>
+      <c r="E221" s="11"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="10"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="1" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
         <v>0</v>
@@ -9795,7 +9551,7 @@
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
       <c r="B274" s="1" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C274" s="1"/>
     </row>
@@ -10206,7 +9962,7 @@
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="2"/>
       <c r="B325" s="1" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C325" s="1"/>
     </row>
@@ -10617,7 +10373,7 @@
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="B376" s="1" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C376" s="1"/>
     </row>
@@ -11028,7 +10784,7 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="2"/>
       <c r="B427" s="1" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="C427" s="1"/>
     </row>
@@ -11441,26 +11197,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264358B-42F3-BF44-A497-B70A8A3F8DB6}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="19.08203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="17.08203125" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1"/>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -11477,10 +11234,10 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
@@ -11495,10 +11252,10 @@
         <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -11645,13 +11402,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -11664,8 +11421,23 @@
       <c r="I18" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="14">
+        <v>45107</v>
+      </c>
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -11674,8 +11446,23 @@
       <c r="I19" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="14">
+        <v>45107</v>
+      </c>
+      <c r="L19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -11684,8 +11471,23 @@
       <c r="I20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="14">
+        <v>45107</v>
+      </c>
+      <c r="L20" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -11694,14 +11496,29 @@
       <c r="I21" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="14">
+        <v>45107</v>
+      </c>
+      <c r="L21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -11714,8 +11531,23 @@
       <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="14">
+        <v>45218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -11724,8 +11556,23 @@
       <c r="I24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="14">
+        <v>45218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -11734,8 +11581,23 @@
       <c r="I25" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="14">
+        <v>45218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>7</v>
@@ -11744,21 +11606,50 @@
       <c r="I26" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="14">
+        <v>45218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="14">
+        <v>45107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
@@ -11766,88 +11657,142 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="K28" s="14">
-        <v>45010</v>
+        <v>45108</v>
       </c>
       <c r="L28" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="M28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="N28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="14">
+        <v>45107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="K29" s="14">
-        <v>45024</v>
+        <v>45108</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="N29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="14">
+        <v>45107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="K30" s="14">
-        <v>45024</v>
+        <v>45108</v>
       </c>
       <c r="L30" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="N30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="14">
+        <v>45107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="K31" s="14">
-        <v>45024</v>
+        <v>45108</v>
       </c>
       <c r="L31" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="N31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="H32" s="1"/>
@@ -11860,138 +11805,68 @@
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="14">
-        <v>44626</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="14">
-        <v>44626</v>
-      </c>
-      <c r="E34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="14"/>
+      <c r="F34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K34" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="14"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="14">
-        <v>44626</v>
-      </c>
-      <c r="E35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="14"/>
+      <c r="F35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="14"/>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="14">
-        <v>44626</v>
-      </c>
-      <c r="E36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="14"/>
+      <c r="F36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="14"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
@@ -12007,16 +11882,19 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D38" s="14">
-        <v>45024</v>
+        <v>45220</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>14</v>
@@ -12024,18 +11902,10 @@
       <c r="I38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
@@ -12043,33 +11913,27 @@
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D39" s="14">
-        <v>45024</v>
+        <v>45220</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>151</v>
+        <v>77</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L39" t="s">
-        <v>135</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="14"/>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
@@ -12077,33 +11941,27 @@
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D40" s="14">
-        <v>45024</v>
+        <v>45220</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L40" t="s">
-        <v>135</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="14"/>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
@@ -12111,33 +11969,27 @@
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="D41" s="14">
-        <v>45024</v>
+        <v>45220</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>188</v>
+        <v>79</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L41" t="s">
-        <v>136</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="14"/>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
@@ -12209,20 +12061,9 @@
       <c r="I48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J48" t="s">
-        <v>140</v>
-      </c>
-      <c r="K48" s="14">
-        <v>44695</v>
-      </c>
-      <c r="L48" t="s">
-        <v>55</v>
-      </c>
-      <c r="M48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>5</v>
@@ -12232,18 +12073,9 @@
       <c r="I49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J49" t="s">
-        <v>140</v>
-      </c>
       <c r="K49" s="14"/>
-      <c r="L49" t="s">
-        <v>55</v>
-      </c>
-      <c r="M49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>6</v>
@@ -12253,18 +12085,9 @@
       <c r="I50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J50" t="s">
-        <v>140</v>
-      </c>
       <c r="K50" s="14"/>
-      <c r="L50" t="s">
-        <v>55</v>
-      </c>
-      <c r="M50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>7</v>
@@ -12274,24 +12097,15 @@
       <c r="I51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J51" t="s">
-        <v>140</v>
-      </c>
       <c r="K51" s="14"/>
-      <c r="L51" t="s">
-        <v>55</v>
-      </c>
-      <c r="M51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -12305,7 +12119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>5</v>
@@ -12315,7 +12129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>6</v>
@@ -12325,7 +12139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>7</v>
@@ -12335,13 +12149,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -12355,7 +12169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>5</v>
@@ -12365,7 +12179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>6</v>
@@ -12375,7 +12189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>7</v>
@@ -12392,10 +12206,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5966D34-AFDC-8D46-87F5-1A179AC4B902}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView topLeftCell="H42" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12403,16 +12217,18 @@
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.08203125" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1"/>
       <c r="I1" s="3" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -12431,7 +12247,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>25</v>
@@ -12449,7 +12265,7 @@
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>25</v>
@@ -12669,7 +12485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12680,7 +12496,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -12699,7 +12515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -12714,7 +12530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -12729,7 +12545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -12744,7 +12560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12755,7 +12571,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>9</v>
@@ -12774,7 +12590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -12789,7 +12605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -12804,7 +12620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -12819,7 +12635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -12830,7 +12646,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>10</v>
@@ -12848,20 +12664,23 @@
       <c r="J28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K28" t="s">
-        <v>123</v>
+      <c r="K28" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="L28" s="14">
-        <v>44962</v>
+        <v>45107</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="N28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -12876,19 +12695,22 @@
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="L29" s="14">
-        <v>44962</v>
+        <v>45107</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="N29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -12903,19 +12725,22 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="L30" s="14">
-        <v>45165</v>
+        <v>45107</v>
       </c>
       <c r="M30" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="N30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -12930,19 +12755,22 @@
         <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="L31" s="14">
-        <v>44962</v>
+        <v>45107</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="N31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -12953,7 +12781,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -12972,7 +12800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -12987,7 +12815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -13001,20 +12829,8 @@
       <c r="J35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K35" t="s">
-        <v>195</v>
-      </c>
-      <c r="L35" t="s">
-        <v>196</v>
-      </c>
-      <c r="M35" t="s">
-        <v>192</v>
-      </c>
-      <c r="N35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -13029,7 +12845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -13040,7 +12856,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>12</v>
@@ -13059,7 +12875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -13074,7 +12890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -13089,7 +12905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -13104,7 +12920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13115,7 +12931,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>13</v>
@@ -13134,7 +12950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -13149,7 +12965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -13164,7 +12980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -13179,7 +12995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -13190,7 +13006,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>32</v>
@@ -13209,7 +13025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -13224,7 +13040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
@@ -13239,7 +13055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
@@ -13254,7 +13070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -13265,7 +13081,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
         <v>33</v>
@@ -13280,7 +13096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
@@ -13288,7 +13104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
@@ -13296,7 +13112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
@@ -13304,81 +13120,109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D58" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="14">
-        <v>44962</v>
-      </c>
-      <c r="F58" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" t="s">
-        <v>150</v>
-      </c>
+      <c r="E58" s="14"/>
       <c r="I58" t="s">
         <v>34</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" t="s">
+        <v>140</v>
+      </c>
+      <c r="L58" s="14">
+        <v>45108</v>
+      </c>
+      <c r="M58" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" t="s">
+        <v>101</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
-        <v>172</v>
-      </c>
       <c r="E59" s="14"/>
-      <c r="F59" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" t="s">
-        <v>189</v>
-      </c>
       <c r="J59" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" t="s">
+        <v>140</v>
+      </c>
+      <c r="L59" s="14">
+        <v>45108</v>
+      </c>
+      <c r="M59" t="s">
+        <v>92</v>
+      </c>
+      <c r="N59" t="s">
+        <v>71</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>172</v>
-      </c>
       <c r="E60" s="14"/>
-      <c r="G60" t="s">
-        <v>153</v>
-      </c>
       <c r="J60" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" t="s">
+        <v>140</v>
+      </c>
+      <c r="L60" s="14">
+        <v>45108</v>
+      </c>
+      <c r="M60" t="s">
+        <v>92</v>
+      </c>
+      <c r="N60" t="s">
+        <v>141</v>
+      </c>
+      <c r="O60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D61" t="s">
-        <v>172</v>
-      </c>
       <c r="E61" s="14"/>
-      <c r="G61" t="s">
-        <v>142</v>
-      </c>
       <c r="J61" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" t="s">
+        <v>140</v>
+      </c>
+      <c r="L61" s="14">
+        <v>45108</v>
+      </c>
+      <c r="M61" t="s">
+        <v>92</v>
+      </c>
+      <c r="N61" t="s">
+        <v>123</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -13922,10 +13766,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6422B65-234B-456E-A916-65D202B4702C}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -13936,13 +13780,13 @@
     <col min="7" max="7" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13957,7 +13801,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -13967,7 +13811,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -13975,7 +13819,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -13983,7 +13827,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -13991,13 +13835,13 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -14005,39 +13849,95 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="14">
+        <v>45107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="14">
+        <v>45107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="14">
+        <v>45107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="14">
+        <v>45107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -14047,7 +13947,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -14055,7 +13955,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -14063,7 +13963,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -14071,13 +13971,13 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -14088,7 +13988,7 @@
       <c r="E18" s="14"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -14097,7 +13997,7 @@
       <c r="E19" s="14"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -14106,7 +14006,7 @@
       <c r="E20" s="14"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -14115,13 +14015,13 @@
       <c r="E21" s="14"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -14129,39 +14029,95 @@
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="14">
+        <v>45107</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="14">
+        <v>45107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="14">
+        <v>45107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="14">
+        <v>45107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
@@ -14169,39 +14125,19 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="14">
-        <v>45177</v>
-      </c>
-      <c r="F28" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E28" s="14"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="14">
-        <v>45177</v>
-      </c>
-      <c r="F29" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="14"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -14209,7 +14145,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -14217,7 +14153,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -14231,18 +14167,8 @@
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="14">
-        <v>44695</v>
-      </c>
-      <c r="F33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="E33" s="14"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
@@ -14250,18 +14176,8 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="14">
-        <v>44695</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E34" s="14"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
@@ -14269,18 +14185,8 @@
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="14">
-        <v>44695</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
@@ -14288,18 +14194,8 @@
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="14">
-        <v>44695</v>
-      </c>
-      <c r="F36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="E36" s="14"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
@@ -14395,18 +14291,8 @@
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="14">
-        <v>45010</v>
-      </c>
-      <c r="F48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E48" s="14"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
@@ -14414,18 +14300,8 @@
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="14">
-        <v>45010</v>
-      </c>
-      <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E49" s="14"/>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
@@ -14433,18 +14309,8 @@
       <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="14">
-        <v>45010</v>
-      </c>
-      <c r="F50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="E50" s="14"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
@@ -14452,18 +14318,8 @@
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="14">
-        <v>45010</v>
-      </c>
-      <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="E51" s="14"/>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
@@ -15222,8 +15078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15427,18 +15283,10 @@
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="13">
-        <v>44962</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
@@ -15457,18 +15305,10 @@
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="13">
-        <v>44962</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
@@ -15718,18 +15558,10 @@
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="13">
-        <v>44877</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
@@ -15737,18 +15569,10 @@
       <c r="C44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="13">
-        <v>44877</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
@@ -15756,18 +15580,10 @@
       <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="13">
-        <v>44877</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
@@ -15775,18 +15591,10 @@
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="13">
-        <v>44877</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>

--- a/public/downloads/results/2024/british/TESTED-FP-RAW.xlsx
+++ b/public/downloads/results/2024/british/TESTED-FP-RAW.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/COMONWELTH ^0 EUROPEN RECORDES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BRITISH ROLLING  RECORDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1649" documentId="8_{406763AE-22C8-4994-A1E8-52D3B1C82B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9E14BC6-AF41-4FF2-8ACA-009762CD317D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481598E-135D-4ED9-BAAD-F757614DED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
     <sheet name="WOMEN OPEN" sheetId="6" r:id="rId2"/>
     <sheet name="MEN MARSTERS" sheetId="1" r:id="rId3"/>
     <sheet name="WOMEN MASTERS" sheetId="2" r:id="rId4"/>
-    <sheet name="MEN JUNIOR 13 - 19" sheetId="3" r:id="rId5"/>
-    <sheet name="WOMEN JUNIOR 15 -19" sheetId="4" r:id="rId6"/>
+    <sheet name="WOMEN JUNIOR 15 -19" sheetId="4" r:id="rId5"/>
+    <sheet name="MEN JUNIOR 13 - 19" sheetId="3" r:id="rId6"/>
     <sheet name="JUNIOR 20-23 MEN" sheetId="12" r:id="rId7"/>
     <sheet name="JUNIOR 20-23 WOMEN " sheetId="13" r:id="rId8"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="155">
   <si>
     <t>Weight</t>
   </si>
@@ -391,43 +391,7 @@
     <t>423.0kg</t>
   </si>
   <si>
-    <t>YAMEOW KEPAE</t>
-  </si>
-  <si>
-    <t>207.0KG</t>
-  </si>
-  <si>
-    <t>182.5KG</t>
-  </si>
-  <si>
-    <t>NAURU</t>
-  </si>
-  <si>
-    <t>495.0KG</t>
-  </si>
-  <si>
-    <t>BRONCO DEIRANAUW</t>
-  </si>
-  <si>
-    <t>350.0KG</t>
-  </si>
-  <si>
     <t>255.0KG</t>
-  </si>
-  <si>
-    <t>805.0KG</t>
-  </si>
-  <si>
-    <t>ARMILLIUS TEIMITSI</t>
-  </si>
-  <si>
-    <t>160.0KG</t>
-  </si>
-  <si>
-    <t>195.0KG</t>
-  </si>
-  <si>
-    <t>460.0KG</t>
   </si>
   <si>
     <t>ELIAS BALIUKEVICIUS</t>
@@ -478,18 +442,6 @@
     <t>640.0KG</t>
   </si>
   <si>
-    <t>VASILE BUCEAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECORD BRAKERS </t>
-  </si>
-  <si>
-    <t>510.0KG</t>
-  </si>
-  <si>
-    <t>ROUMANIA</t>
-  </si>
-  <si>
     <t>GHEORGHE BUCEAC</t>
   </si>
   <si>
@@ -507,11 +459,62 @@
   <si>
     <t>795.0KG</t>
   </si>
+  <si>
+    <t>JOSEPH WILTSHIRE</t>
+  </si>
+  <si>
+    <t>THE MONTY CROWN</t>
+  </si>
+  <si>
+    <t>215.0KG</t>
+  </si>
+  <si>
+    <t>535.0KG</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>CHARLIE SIMON</t>
+  </si>
+  <si>
+    <t>87.5KG</t>
+  </si>
+  <si>
+    <t>192.5KG</t>
+  </si>
+  <si>
+    <t>450.0KG</t>
+  </si>
+  <si>
+    <t>JON SWAFFIELD</t>
+  </si>
+  <si>
+    <t>125.0KG</t>
+  </si>
+  <si>
+    <t>JOE SWAFFIELD</t>
+  </si>
+  <si>
+    <t>420.0KG</t>
+  </si>
+  <si>
+    <t>TERRENCE ADAMS</t>
+  </si>
+  <si>
+    <t>MAYHEM IN BOSTON</t>
+  </si>
+  <si>
+    <t>145.0KG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -585,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,6 +614,11 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,14 +636,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -673,7 +677,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -779,7 +783,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -921,7 +925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -931,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306999F4-8918-254E-B53D-F64ABC5BF343}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G63" sqref="G62:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1248,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E28" s="13">
         <v>45108</v>
@@ -1270,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E29" s="13">
         <v>45108</v>
@@ -1279,7 +1283,7 @@
         <v>92</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>66</v>
@@ -1292,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E30" s="13">
         <v>45108</v>
@@ -1301,7 +1305,7 @@
         <v>92</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>66</v>
@@ -1314,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E31" s="13">
         <v>45108</v>
@@ -1323,7 +1327,7 @@
         <v>92</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>66</v>
@@ -1346,21 +1350,11 @@
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="13">
-        <v>45256</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
@@ -1368,21 +1362,11 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="13">
-        <v>45256</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
@@ -1390,21 +1374,11 @@
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="13">
-        <v>45256</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
@@ -1412,21 +1386,11 @@
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="13">
-        <v>45256</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
@@ -1556,19 +1520,19 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E48" s="13">
         <v>45256</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -1578,19 +1542,19 @@
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E49" s="13">
         <v>45256</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -1600,19 +1564,19 @@
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E50" s="13">
         <v>45256</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -1622,19 +1586,19 @@
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E51" s="13">
         <v>45256</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -1829,7 +1793,7 @@
         <v>92</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H61" t="s">
         <v>66</v>
@@ -2405,7 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -2904,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E49" s="11">
         <v>45108</v>
@@ -2926,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E50" s="11">
         <v>45108</v>
@@ -2935,7 +2899,7 @@
         <v>92</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H50" t="s">
         <v>66</v>
@@ -2948,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E51" s="11">
         <v>45108</v>
@@ -2970,7 +2934,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E52" s="11">
         <v>45108</v>
@@ -2979,7 +2943,7 @@
         <v>92</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H52" t="s">
         <v>66</v>
@@ -3053,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
   <dimension ref="A1:I556"/>
   <sheetViews>
-    <sheetView topLeftCell="B236" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H401" sqref="H401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3268,21 +3232,8 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="11">
-        <v>45108</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="E28" s="11"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
@@ -3290,21 +3241,8 @@
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="11">
-        <v>45108</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="E29" s="11"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3313,21 +3251,8 @@
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="11">
-        <v>45108</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="E30" s="11"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
@@ -3335,21 +3260,8 @@
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="11">
-        <v>45108</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="E31" s="11"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
@@ -4180,12 +4092,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
         <v>11</v>
@@ -4193,34 +4105,85 @@
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D146" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E146" s="11">
+        <v>45326</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D147" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H147" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D148" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H148" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D149" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>12</v>
@@ -4230,7 +4193,7 @@
       </c>
       <c r="E151" s="11"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1" t="s">
@@ -4238,7 +4201,7 @@
       </c>
       <c r="E152" s="11"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
@@ -4246,7 +4209,7 @@
       </c>
       <c r="E153" s="11"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1" t="s">
@@ -4254,12 +4217,12 @@
       </c>
       <c r="E154" s="11"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
         <v>13</v>
@@ -4269,7 +4232,7 @@
       </c>
       <c r="E156" s="11"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
@@ -4277,7 +4240,7 @@
       </c>
       <c r="E157" s="11"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
@@ -4285,7 +4248,7 @@
       </c>
       <c r="E158" s="11"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
@@ -4293,7 +4256,7 @@
       </c>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4960,7 +4923,7 @@
         <v>92</v>
       </c>
       <c r="G243" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H243" s="9" t="s">
         <v>66</v>
@@ -5004,7 +4967,7 @@
         <v>92</v>
       </c>
       <c r="G245" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H245" s="9" t="s">
         <v>66</v>
@@ -5026,7 +4989,7 @@
         <v>92</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H246" s="9" t="s">
         <v>66</v>
@@ -6116,26 +6079,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="2"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D401" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E401" s="11">
+        <v>45354</v>
+      </c>
+      <c r="F401" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G401" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H401" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="2"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="2"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="2"/>
       <c r="B404" s="1" t="s">
         <v>13</v>
@@ -6144,33 +6122,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="2"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="2"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="2"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="2"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="2"/>
       <c r="B409" s="1" t="s">
         <v>14</v>
@@ -6179,33 +6157,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="2"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="2"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="2"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="2"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="2"/>
       <c r="B414" s="1" t="s">
         <v>15</v>
@@ -6214,14 +6192,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="2"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="2"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1" t="s">
@@ -7219,8 +7197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:H477"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="117" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11196,1020 +11174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264358B-42F3-BF44-A497-B70A8A3F8DB6}">
-  <dimension ref="A1:N61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="19.08203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.08203125" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="14">
-        <v>45107</v>
-      </c>
-      <c r="L18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="14">
-        <v>45107</v>
-      </c>
-      <c r="L19" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" t="s">
-        <v>93</v>
-      </c>
-      <c r="N19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="14">
-        <v>45107</v>
-      </c>
-      <c r="L20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="14">
-        <v>45107</v>
-      </c>
-      <c r="L21" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" t="s">
-        <v>120</v>
-      </c>
-      <c r="N21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="14">
-        <v>45218</v>
-      </c>
-      <c r="L23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="14">
-        <v>45218</v>
-      </c>
-      <c r="L24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="14">
-        <v>45218</v>
-      </c>
-      <c r="L25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M25" t="s">
-        <v>68</v>
-      </c>
-      <c r="N25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="14">
-        <v>45218</v>
-      </c>
-      <c r="L26" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="14">
-        <v>45107</v>
-      </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="14">
-        <v>45108</v>
-      </c>
-      <c r="L28" t="s">
-        <v>92</v>
-      </c>
-      <c r="M28" t="s">
-        <v>126</v>
-      </c>
-      <c r="N28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="14">
-        <v>45107</v>
-      </c>
-      <c r="E29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="14">
-        <v>45108</v>
-      </c>
-      <c r="L29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" t="s">
-        <v>93</v>
-      </c>
-      <c r="N29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="14">
-        <v>45107</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="14">
-        <v>45108</v>
-      </c>
-      <c r="L30" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="14">
-        <v>45107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="14">
-        <v>45108</v>
-      </c>
-      <c r="L31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="14"/>
-      <c r="F34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="14"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="14"/>
-      <c r="F35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="14"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="14"/>
-      <c r="F36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="14"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="14">
-        <v>45220</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="14">
-        <v>45220</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="14"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="14">
-        <v>45220</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="14"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="14">
-        <v>45220</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="14"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="H48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5966D34-AFDC-8D46-87F5-1A179AC4B902}">
   <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView topLeftCell="H42" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12218,6 +11187,7 @@
     <col min="5" max="5" width="17.08203125" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="15"/>
     <col min="13" max="13" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12261,7 +11231,7 @@
       <c r="K2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -12667,7 +11637,7 @@
       <c r="K28" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="15">
         <v>45107</v>
       </c>
       <c r="M28" t="s">
@@ -12697,7 +11667,7 @@
       <c r="K29" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="15">
         <v>45107</v>
       </c>
       <c r="M29" t="s">
@@ -12727,7 +11697,7 @@
       <c r="K30" t="s">
         <v>104</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="15">
         <v>45107</v>
       </c>
       <c r="M30" t="s">
@@ -12757,7 +11727,7 @@
       <c r="K31" t="s">
         <v>104</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="15">
         <v>45107</v>
       </c>
       <c r="M31" t="s">
@@ -13135,9 +12105,9 @@
         <v>4</v>
       </c>
       <c r="K58" t="s">
-        <v>140</v>
-      </c>
-      <c r="L58" s="14">
+        <v>128</v>
+      </c>
+      <c r="L58" s="15">
         <v>45108</v>
       </c>
       <c r="M58" t="s">
@@ -13159,9 +12129,9 @@
         <v>5</v>
       </c>
       <c r="K59" t="s">
-        <v>140</v>
-      </c>
-      <c r="L59" s="14">
+        <v>128</v>
+      </c>
+      <c r="L59" s="15">
         <v>45108</v>
       </c>
       <c r="M59" t="s">
@@ -13183,16 +12153,16 @@
         <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>140</v>
-      </c>
-      <c r="L60" s="14">
+        <v>128</v>
+      </c>
+      <c r="L60" s="15">
         <v>45108</v>
       </c>
       <c r="M60" t="s">
         <v>92</v>
       </c>
       <c r="N60" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O60" t="s">
         <v>66</v>
@@ -13207,16 +12177,16 @@
         <v>7</v>
       </c>
       <c r="K61" t="s">
-        <v>140</v>
-      </c>
-      <c r="L61" s="14">
+        <v>128</v>
+      </c>
+      <c r="L61" s="15">
         <v>45108</v>
       </c>
       <c r="M61" t="s">
         <v>92</v>
       </c>
       <c r="N61" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O61" t="s">
         <v>66</v>
@@ -13758,6 +12728,1032 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264358B-42F3-BF44-A497-B70A8A3F8DB6}">
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="19.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="15"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.08203125" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="15"/>
+    <col min="12" max="12" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="15">
+        <v>45218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="15">
+        <v>45218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="15">
+        <v>45218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="15">
+        <v>45218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="15">
+        <v>45107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="15">
+        <v>45326</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N28">
+        <v>16</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="15">
+        <v>45107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="15">
+        <v>45326</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29">
+        <v>16</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="15">
+        <v>45107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="15">
+        <v>45326</v>
+      </c>
+      <c r="L30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" t="s">
+        <v>141</v>
+      </c>
+      <c r="N30">
+        <v>16</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="15">
+        <v>45107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="15">
+        <v>45326</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" t="s">
+        <v>142</v>
+      </c>
+      <c r="N31">
+        <v>16</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="15">
+        <v>45220</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="15">
+        <v>45220</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="15">
+        <v>45220</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="15">
+        <v>45220</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>144</v>
+      </c>
+      <c r="K53" s="15">
+        <v>45326</v>
+      </c>
+      <c r="L53" t="s">
+        <v>140</v>
+      </c>
+      <c r="M53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N53">
+        <v>17</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="15">
+        <v>45326</v>
+      </c>
+      <c r="L54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M54" t="s">
+        <v>145</v>
+      </c>
+      <c r="N54">
+        <v>17</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" s="15">
+        <v>45326</v>
+      </c>
+      <c r="L55" t="s">
+        <v>140</v>
+      </c>
+      <c r="M55" t="s">
+        <v>146</v>
+      </c>
+      <c r="N55">
+        <v>17</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56" s="15">
+        <v>45326</v>
+      </c>
+      <c r="L56" t="s">
+        <v>140</v>
+      </c>
+      <c r="M56" t="s">
+        <v>147</v>
+      </c>
+      <c r="N56">
+        <v>17</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13768,14 +13764,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6422B65-234B-456E-A916-65D202B4702C}">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="18.58203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.9140625" customWidth="1"/>
   </cols>
@@ -13797,7 +13793,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
     </row>
@@ -13852,7 +13848,7 @@
       <c r="D8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>45107</v>
       </c>
       <c r="F8" t="s">
@@ -13874,7 +13870,7 @@
       <c r="D9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>45107</v>
       </c>
       <c r="F9" t="s">
@@ -13896,7 +13892,7 @@
       <c r="D10" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>45107</v>
       </c>
       <c r="F10" t="s">
@@ -13918,7 +13914,7 @@
       <c r="D11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>45107</v>
       </c>
       <c r="F11" t="s">
@@ -13985,7 +13981,6 @@
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="14"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -13994,7 +13989,6 @@
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="14"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -14003,7 +13997,6 @@
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="14"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -14012,7 +14005,6 @@
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="14"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -14032,7 +14024,7 @@
       <c r="D23" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="15">
         <v>45107</v>
       </c>
       <c r="F23" t="s">
@@ -14054,7 +14046,7 @@
       <c r="D24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="15">
         <v>45107</v>
       </c>
       <c r="F24" t="s">
@@ -14076,7 +14068,7 @@
       <c r="D25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <v>45107</v>
       </c>
       <c r="F25" t="s">
@@ -14098,7 +14090,7 @@
       <c r="D26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="15">
         <v>45107</v>
       </c>
       <c r="F26" t="s">
@@ -14125,7 +14117,6 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="14"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -14134,7 +14125,6 @@
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="14"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -14167,7 +14157,6 @@
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="14"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -14176,7 +14165,6 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="14"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -14185,7 +14173,6 @@
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="14"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -14194,7 +14181,6 @@
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="14"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -14291,7 +14277,6 @@
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="14"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -14300,7 +14285,6 @@
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="14"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -14309,7 +14293,6 @@
       <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="14"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -14318,7 +14301,6 @@
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="14"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -14417,7 +14399,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
@@ -14430,7 +14412,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="16"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
@@ -14441,7 +14423,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="10"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
@@ -14452,7 +14434,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
@@ -14463,7 +14445,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="10"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
@@ -14472,7 +14454,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
@@ -14485,7 +14467,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="10"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
@@ -14496,7 +14478,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="10"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
@@ -14507,7 +14489,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="10"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
@@ -14518,7 +14500,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="10"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
@@ -14527,7 +14509,7 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
@@ -14540,7 +14522,7 @@
         <v>4</v>
       </c>
       <c r="D74" s="10"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
@@ -14551,7 +14533,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="10"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
@@ -14562,7 +14544,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="10"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="16"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
@@ -14573,7 +14555,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="10"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
@@ -14582,7 +14564,7 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
@@ -14595,7 +14577,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
@@ -14606,7 +14588,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="10"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
@@ -14617,7 +14599,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
@@ -14628,7 +14610,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="10"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="16"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
@@ -14637,7 +14619,7 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
@@ -14650,7 +14632,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="10"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
@@ -14661,7 +14643,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="10"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="16"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
@@ -14672,7 +14654,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
@@ -14683,7 +14665,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="10"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
@@ -14692,7 +14674,7 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="16"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
@@ -14705,7 +14687,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="10"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
@@ -14716,7 +14698,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="10"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
@@ -14727,7 +14709,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="10"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
@@ -14738,7 +14720,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="10"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="16"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
@@ -14747,7 +14729,7 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="10"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
@@ -14760,7 +14742,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="10"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="16"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
@@ -14771,7 +14753,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="10"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="16"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
@@ -14782,7 +14764,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
@@ -14793,7 +14775,7 @@
         <v>7</v>
       </c>
       <c r="D97" s="10"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
@@ -14802,7 +14784,7 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="16"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
@@ -14815,7 +14797,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="10"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
@@ -14826,7 +14808,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="10"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="16"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
@@ -14837,7 +14819,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="10"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
@@ -14848,7 +14830,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="10"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
@@ -14857,7 +14839,7 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="10"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="16"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
@@ -14870,7 +14852,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="10"/>
-      <c r="E104" s="1"/>
+      <c r="E104" s="16"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
@@ -14881,7 +14863,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="10"/>
-      <c r="E105" s="1"/>
+      <c r="E105" s="16"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
@@ -14892,7 +14874,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="10"/>
-      <c r="E106" s="1"/>
+      <c r="E106" s="16"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
@@ -14903,7 +14885,7 @@
         <v>7</v>
       </c>
       <c r="D107" s="10"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="16"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
@@ -14912,7 +14894,7 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="10"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="16"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
@@ -14925,7 +14907,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="10"/>
-      <c r="E109" s="1"/>
+      <c r="E109" s="16"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
@@ -14936,7 +14918,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="10"/>
-      <c r="E110" s="1"/>
+      <c r="E110" s="16"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
@@ -14947,7 +14929,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="10"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="16"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
@@ -14958,7 +14940,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="10"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="16"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
@@ -14967,7 +14949,7 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="1"/>
+      <c r="E113" s="16"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
@@ -14980,7 +14962,7 @@
         <v>4</v>
       </c>
       <c r="D114" s="10"/>
-      <c r="E114" s="1"/>
+      <c r="E114" s="16"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
@@ -14991,7 +14973,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="10"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="16"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
@@ -15002,7 +14984,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="10"/>
-      <c r="E116" s="1"/>
+      <c r="E116" s="16"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
@@ -15013,7 +14995,7 @@
         <v>7</v>
       </c>
       <c r="D117" s="10"/>
-      <c r="E117" s="1"/>
+      <c r="E117" s="16"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
@@ -15022,7 +15004,7 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="10"/>
-      <c r="E118" s="1"/>
+      <c r="E118" s="16"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
@@ -15035,7 +15017,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="10"/>
-      <c r="E119" s="1"/>
+      <c r="E119" s="16"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
@@ -15046,7 +15028,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="10"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="16"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
@@ -15057,7 +15039,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="10"/>
-      <c r="E121" s="1"/>
+      <c r="E121" s="16"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
@@ -15078,7 +15060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
